--- a/logs/post_logs.xlsx
+++ b/logs/post_logs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,6 +596,278 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-07-31 14:30:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off
+👉🏻 amzaff.in/pXpqAHe
+🪴 Solar Garden &amp; Outdoors
+⚡️ Up to 70% off
+👉🏻 amzaff.in/092HVM2
+🛍 End Of Season Sale
+⚡️ Up to 70% off
+👉🏻 amzaff.in/ukuS1wj
+🏠 Home Shopping Spree
+📣 Sale live from 26th-30th July
+👉🏻 amzaff.in/dvgN1JH</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-07-31 16:00:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+💥 Maximise earnings with Beauty commissions – Now increased to 10%
+🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
+⚡️ 80g @25% + 5% Off – ₹22
+👉🏻 amzaff.in/kyKGkVq
+🧼 Cetaphil Brightness Reveal Creamy Cleanser
+⚡️ 100g @25% Off – ₹599
+👉🏻 amzaff.in/2QkCAT6
+💆‍♀️ Herbal Essences bio:renew Argan Oil of Morocco Shampoo
+⚡️ 400ml @60% Off – ₹260
+👉🏻 amzaff.in/WPdHenG
+🧴 Be Bodywise 6% AHA BHA Underarm Roll On Deodorant
+⚡️ 50ml | Alcohol &amp; Aluminum Free – ₹399
+👉🏻 amzaff.in/3YBXpxC
+🕺 Park Avenue Voyage Signature Collection Perfume for Men
+⚡️ 120ml @57% Off – ₹171
+👉🏻 amzaff.in/IQsEdXX</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-07-31 17:30:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>💻 **DEMO Level Gaming Laptops**
+⚡️ Up to 45% off
+👉🏻 amzaff.in/FeVABNi
+🔥 Gaming Laptops Under ₹80,000 🔥
+💻 ASUS TUF A15 GAMING
+⚡️ ~~₹83,990~~ | ₹63,990
+⚡️ Effective price ₹56,490
+👉🏻 amzaff.in/HNJJ4b3
+💻 HP VICTUS GAMING
+⚡️ ~~₹99,382~~ | ₹82,990
+⚡️ Effective price ₹77,490
+👉🏻 amzaff.in/rIYTx8U
+💻 LENOVO LOQ GAMING
+⚡️ ~~₹1,12,990~~ | ₹87,190
+⚡️ Effective price ₹77,190
+👉🏻 amzaff.in/Q2oXx7g
+💻 ACER NITRO V GAMING
+⚡️ ~~₹89,999~~ | ₹70,990
+⚡️ Effective price ₹67,490
+👉🏻 amzaff.in/Es6mtU0
+💻 DELL G15 GAMING
+⚡️ ~~₹1,06,331~~ | ₹77,490
+⚡️ Effective price ₹68,990
+👉🏻 amzaff.in/MMEYXBc
+💻 ASUS CREATOR SERIES
+⚡️ ~~₹85,990~~ | ₹72,990
+⚡️ Effective price ₹66,490
+👉🏻 amzaff.in/R4IV7C8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-07-31 14:30:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off
+👉🏻 amzaff.in/pXpqAHe
+🪴 Solar Garden &amp; Outdoors
+⚡️ Up to 70% off
+👉🏻 amzaff.in/092HVM2
+🛍 End Of Season Sale
+⚡️ Up to 70% off
+👉🏻 amzaff.in/ukuS1wj
+🏠 Home Shopping Spree
+📣 Sale live from 26th-30th July
+👉🏻 amzaff.in/dvgN1JH</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-07-31 16:00:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+💥 Maximise earnings with Beauty commissions – Now increased to 10%
+🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
+⚡️ 80g @25% + 5% Off – ₹22
+👉🏻 amzaff.in/kyKGkVq
+🧼 Cetaphil Brightness Reveal Creamy Cleanser
+⚡️ 100g @25% Off – ₹599
+👉🏻 amzaff.in/2QkCAT6
+💆‍♀️ Herbal Essences bio:renew Argan Oil of Morocco Shampoo
+⚡️ 400ml @60% Off – ₹260
+👉🏻 amzaff.in/WPdHenG
+🧴 Be Bodywise 6% AHA BHA Underarm Roll On Deodorant
+⚡️ 50ml | Alcohol &amp; Aluminum Free – ₹399
+👉🏻 amzaff.in/3YBXpxC
+🕺 Park Avenue Voyage Signature Collection Perfume for Men
+⚡️ 120ml @57% Off – ₹171
+👉🏻 amzaff.in/IQsEdXX</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-07-31 17:30:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>💻 **DEMO Level Gaming Laptops**
+⚡️ Up to 45% off
+👉🏻 amzaff.in/FeVABNi
+🔥 Gaming Laptops Under ₹80,000 🔥
+💻 ASUS TUF A15 GAMING
+⚡️ ~~₹83,990~~ | ₹63,990
+⚡️ Effective price ₹56,490
+👉🏻 amzaff.in/HNJJ4b3
+💻 HP VICTUS GAMING
+⚡️ ~~₹99,382~~ | ₹82,990
+⚡️ Effective price ₹77,490
+👉🏻 amzaff.in/rIYTx8U
+💻 LENOVO LOQ GAMING
+⚡️ ~~₹1,12,990~~ | ₹87,190
+⚡️ Effective price ₹77,190
+👉🏻 amzaff.in/Q2oXx7g
+💻 ACER NITRO V GAMING
+⚡️ ~~₹89,999~~ | ₹70,990
+⚡️ Effective price ₹67,490
+👉🏻 amzaff.in/Es6mtU0
+💻 DELL G15 GAMING
+⚡️ ~~₹1,06,331~~ | ₹77,490
+⚡️ Effective price ₹68,990
+👉🏻 amzaff.in/MMEYXBc
+💻 ASUS CREATOR SERIES
+⚡️ ~~₹85,990~~ | ₹72,990
+⚡️ Effective price ₹66,490
+👉🏻 amzaff.in/R4IV7C8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/post_logs.xlsx
+++ b/logs/post_logs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,22 +441,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Scheduled Time</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>message</t>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Message</t>
         </is>
       </c>
     </row>
@@ -466,22 +471,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14:45:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>✅ Scheduled</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-07-31 14:30:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Kid's Carnival</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>🔥 **DEMO DEALS OF THE DAY** 🔥
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+🔥 **DEMO DEALS OF THE DAY** 🔥
 💥 Price Crash Store
 ⚡️ Up to 5% off
 👉🏻 amzaff.in/l3swo0g
@@ -509,22 +520,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>✅ Scheduled</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-07-31 16:00:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Daily Essentials</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
 💥 Maximise earnings with Beauty commissions – Now increased to 10%
 🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
 ⚡️ 80g @25% + 5% Off – ₹22
@@ -550,22 +567,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>✅ Scheduled</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2025-07-31 17:30:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Laptops</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>💻 **DEMO Level Gaming Laptops**
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💻 **DEMO Level Gaming Laptops**
 ⚡️ Up to 45% off
 👉🏻 amzaff.in/FeVABNi
 🔥 Gaming Laptops Under ₹80,000 🔥
@@ -596,278 +619,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>✅ Scheduled</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025-07-31 14:30:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Kid's Carnival</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>🔥 **DEMO DEALS OF THE DAY** 🔥
-💥 Price Crash Store
-⚡️ Up to 5% off
-👉🏻 amzaff.in/l3swo0g
-🌟 Kid's Carnival
-📣 Sale live till 28th July
-👉🏻 amzaff.in/jrtPYsT
-🧸 Toy's Fiesta
-⚡️ Up to 70% off
-👉🏻 amzaff.in/pXpqAHe
-🪴 Solar Garden &amp; Outdoors
-⚡️ Up to 70% off
-👉🏻 amzaff.in/092HVM2
-🛍 End Of Season Sale
-⚡️ Up to 70% off
-👉🏻 amzaff.in/ukuS1wj
-🏠 Home Shopping Spree
-📣 Sale live from 26th-30th July
-👉🏻 amzaff.in/dvgN1JH</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>✅ Scheduled</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2025-07-31 16:00:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Daily Essentials</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
-💥 Maximise earnings with Beauty commissions – Now increased to 10%
-🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
-⚡️ 80g @25% + 5% Off – ₹22
-👉🏻 amzaff.in/kyKGkVq
-🧼 Cetaphil Brightness Reveal Creamy Cleanser
-⚡️ 100g @25% Off – ₹599
-👉🏻 amzaff.in/2QkCAT6
-💆‍♀️ Herbal Essences bio:renew Argan Oil of Morocco Shampoo
-⚡️ 400ml @60% Off – ₹260
-👉🏻 amzaff.in/WPdHenG
-🧴 Be Bodywise 6% AHA BHA Underarm Roll On Deodorant
-⚡️ 50ml | Alcohol &amp; Aluminum Free – ₹399
-👉🏻 amzaff.in/3YBXpxC
-🕺 Park Avenue Voyage Signature Collection Perfume for Men
-⚡️ 120ml @57% Off – ₹171
-👉🏻 amzaff.in/IQsEdXX</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>✅ Scheduled</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2025-07-31 17:30:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Laptops</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>💻 **DEMO Level Gaming Laptops**
-⚡️ Up to 45% off
-👉🏻 amzaff.in/FeVABNi
-🔥 Gaming Laptops Under ₹80,000 🔥
-💻 ASUS TUF A15 GAMING
-⚡️ ~~₹83,990~~ | ₹63,990
-⚡️ Effective price ₹56,490
-👉🏻 amzaff.in/HNJJ4b3
-💻 HP VICTUS GAMING
-⚡️ ~~₹99,382~~ | ₹82,990
-⚡️ Effective price ₹77,490
-👉🏻 amzaff.in/rIYTx8U
-💻 LENOVO LOQ GAMING
-⚡️ ~~₹1,12,990~~ | ₹87,190
-⚡️ Effective price ₹77,190
-👉🏻 amzaff.in/Q2oXx7g
-💻 ACER NITRO V GAMING
-⚡️ ~~₹89,999~~ | ₹70,990
-⚡️ Effective price ₹67,490
-👉🏻 amzaff.in/Es6mtU0
-💻 DELL G15 GAMING
-⚡️ ~~₹1,06,331~~ | ₹77,490
-⚡️ Effective price ₹68,990
-👉🏻 amzaff.in/MMEYXBc
-💻 ASUS CREATOR SERIES
-⚡️ ~~₹85,990~~ | ₹72,990
-⚡️ Effective price ₹66,490
-👉🏻 amzaff.in/R4IV7C8</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>✅ Scheduled</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2025-07-31 14:30:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Kid's Carnival</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>🔥 **DEMO DEALS OF THE DAY** 🔥
-💥 Price Crash Store
-⚡️ Up to 5% off
-👉🏻 amzaff.in/l3swo0g
-🌟 Kid's Carnival
-📣 Sale live till 28th July
-👉🏻 amzaff.in/jrtPYsT
-🧸 Toy's Fiesta
-⚡️ Up to 70% off
-👉🏻 amzaff.in/pXpqAHe
-🪴 Solar Garden &amp; Outdoors
-⚡️ Up to 70% off
-👉🏻 amzaff.in/092HVM2
-🛍 End Of Season Sale
-⚡️ Up to 70% off
-👉🏻 amzaff.in/ukuS1wj
-🏠 Home Shopping Spree
-📣 Sale live from 26th-30th July
-👉🏻 amzaff.in/dvgN1JH</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>✅ Scheduled</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2025-07-31 16:00:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Daily Essentials</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
-💥 Maximise earnings with Beauty commissions – Now increased to 10%
-🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
-⚡️ 80g @25% + 5% Off – ₹22
-👉🏻 amzaff.in/kyKGkVq
-🧼 Cetaphil Brightness Reveal Creamy Cleanser
-⚡️ 100g @25% Off – ₹599
-👉🏻 amzaff.in/2QkCAT6
-💆‍♀️ Herbal Essences bio:renew Argan Oil of Morocco Shampoo
-⚡️ 400ml @60% Off – ₹260
-👉🏻 amzaff.in/WPdHenG
-🧴 Be Bodywise 6% AHA BHA Underarm Roll On Deodorant
-⚡️ 50ml | Alcohol &amp; Aluminum Free – ₹399
-👉🏻 amzaff.in/3YBXpxC
-🕺 Park Avenue Voyage Signature Collection Perfume for Men
-⚡️ 120ml @57% Off – ₹171
-👉🏻 amzaff.in/IQsEdXX</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>✅ Scheduled</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2025-07-31 17:30:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Laptops</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>💻 **DEMO Level Gaming Laptops**
-⚡️ Up to 45% off
-👉🏻 amzaff.in/FeVABNi
-🔥 Gaming Laptops Under ₹80,000 🔥
-💻 ASUS TUF A15 GAMING
-⚡️ ~~₹83,990~~ | ₹63,990
-⚡️ Effective price ₹56,490
-👉🏻 amzaff.in/HNJJ4b3
-💻 HP VICTUS GAMING
-⚡️ ~~₹99,382~~ | ₹82,990
-⚡️ Effective price ₹77,490
-👉🏻 amzaff.in/rIYTx8U
-💻 LENOVO LOQ GAMING
-⚡️ ~~₹1,12,990~~ | ₹87,190
-⚡️ Effective price ₹77,190
-👉🏻 amzaff.in/Q2oXx7g
-💻 ACER NITRO V GAMING
-⚡️ ~~₹89,999~~ | ₹70,990
-⚡️ Effective price ₹67,490
-👉🏻 amzaff.in/Es6mtU0
-💻 DELL G15 GAMING
-⚡️ ~~₹1,06,331~~ | ₹77,490
-⚡️ Effective price ₹68,990
-👉🏻 amzaff.in/MMEYXBc
-💻 ASUS CREATOR SERIES
-⚡️ ~~₹85,990~~ | ₹72,990
-⚡️ Effective price ₹66,490
-👉🏻 amzaff.in/R4IV7C8</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/post_logs.xlsx
+++ b/logs/post_logs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,6 +619,468 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off
+👉🏻 amzaff.in/pXpqAHe
+🪴 Solar Garden &amp; Outdoors
+⚡️ Up to 70% off
+👉🏻 amzaff.in/092HVM2
+🛍 End Of Season Sale
+⚡️ Up to 70% off
+👉🏻 amzaff.in/ukuS1wj
+🏠 Home Shopping Spree
+📣 Sale live from 26th-30th July
+👉🏻 amzaff.in/dvgN1JH</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15:15:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+💥 Maximise earnings with Beauty commissions – Now increased to 10%
+🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
+⚡️ 80g @25% + 5% Off – ₹22
+👉🏻 amzaff.in/kyKGkVq
+🧼 Cetaphil Brightness Reveal Creamy Cleanser
+⚡️ 100g @25% Off – ₹599
+👉🏻 amzaff.in/2QkCAT6
+💆‍♀️ Herbal Essences bio:renew Argan Oil of Morocco Shampoo
+⚡️ 400ml @60% Off – ₹260
+👉🏻 amzaff.in/WPdHenG
+🧴 Be Bodywise 6% AHA BHA Underarm Roll On Deodorant
+⚡️ 50ml | Alcohol &amp; Aluminum Free – ₹399
+👉🏻 amzaff.in/3YBXpxC
+🕺 Park Avenue Voyage Signature Collection Perfume for Men
+⚡️ 120ml @57% Off – ₹171
+👉🏻 amzaff.in/IQsEdXX</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💻 **DEMO Level Gaming Laptops**
+⚡️ Up to 45% off
+👉🏻 amzaff.in/FeVABNi
+🔥 Gaming Laptops Under ₹80,000 🔥
+💻 ASUS TUF A15 GAMING
+⚡️ ~~₹83,990~~ | ₹63,990
+⚡️ Effective price ₹56,490
+👉🏻 amzaff.in/HNJJ4b3
+💻 HP VICTUS GAMING
+⚡️ ~~₹99,382~~ | ₹82,990
+⚡️ Effective price ₹77,490
+👉🏻 amzaff.in/rIYTx8U
+💻 LENOVO LOQ GAMING
+⚡️ ~~₹1,12,990~~ | ₹87,190
+⚡️ Effective price ₹77,190
+👉🏻 amzaff.in/Q2oXx7g
+💻 ACER NITRO V GAMING
+⚡️ ~~₹89,999~~ | ₹70,990
+⚡️ Effective price ₹67,490
+👉🏻 amzaff.in/Es6mtU0
+💻 DELL G15 GAMING
+⚡️ ~~₹1,06,331~~ | ₹77,490
+⚡️ Effective price ₹68,990
+👉🏻 amzaff.in/MMEYXBc
+💻 ASUS CREATOR SERIES
+⚡️ ~~₹85,990~~ | ₹72,990
+⚡️ Effective price ₹66,490
+👉🏻 amzaff.in/R4IV7C8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off
+👉🏻 amzaff.in/pXpqAHe
+🪴 Solar Garden &amp; Outdoors
+⚡️ Up to 70% off
+👉🏻 amzaff.in/092HVM2
+🛍 End Of Season Sale
+⚡️ Up to 70% off
+👉🏻 amzaff.in/ukuS1wj
+🏠 Home Shopping Spree
+📣 Sale live from 26th-30th July
+👉🏻 amzaff.in/dvgN1JH</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+💥 Maximise earnings with Beauty commissions – Now increased to 10%
+🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
+⚡️ 80g @25% + 5% Off – ₹22
+👉🏻 amzaff.in/kyKGkVq
+🧼 Cetaphil Brightness Reveal Creamy Cleanser
+⚡️ 100g @25% Off – ₹599
+👉🏻 amzaff.in/2QkCAT6
+💆‍♀️ Herbal Essences bio:renew Argan Oil of Morocco Shampoo
+⚡️ 400ml @60% Off – ₹260
+👉🏻 amzaff.in/WPdHenG
+🧴 Be Bodywise 6% AHA BHA Underarm Roll On Deodorant
+⚡️ 50ml | Alcohol &amp; Aluminum Free – ₹399
+👉🏻 amzaff.in/3YBXpxC
+🕺 Park Avenue Voyage Signature Collection Perfume for Men
+⚡️ 120ml @57% Off – ₹171
+👉🏻 amzaff.in/IQsEdXX</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💻 **DEMO Level Gaming Laptops**
+⚡️ Up to 45% off
+👉🏻 amzaff.in/FeVABNi
+🔥 Gaming Laptops Under ₹80,000 🔥
+💻 ASUS TUF A15 GAMING
+⚡️ ~~₹83,990~~ | ₹63,990
+⚡️ Effective price ₹56,490
+👉🏻 amzaff.in/HNJJ4b3
+💻 HP VICTUS GAMING
+⚡️ ~~₹99,382~~ | ₹82,990
+⚡️ Effective price ₹77,490
+👉🏻 amzaff.in/rIYTx8U
+💻 LENOVO LOQ GAMING
+⚡️ ~~₹1,12,990~~ | ₹87,190
+⚡️ Effective price ₹77,190
+👉🏻 amzaff.in/Q2oXx7g
+💻 ACER NITRO V GAMING
+⚡️ ~~₹89,999~~ | ₹70,990
+⚡️ Effective price ₹67,490
+👉🏻 amzaff.in/Es6mtU0
+💻 DELL G15 GAMING
+⚡️ ~~₹1,06,331~~ | ₹77,490
+⚡️ Effective price ₹68,990
+👉🏻 amzaff.in/MMEYXBc
+💻 ASUS CREATOR SERIES
+⚡️ ~~₹85,990~~ | ₹72,990
+⚡️ Effective price ₹66,490
+👉🏻 amzaff.in/R4IV7C8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off
+👉🏻 amzaff.in/pXpqAHe
+🪴 Solar Garden &amp; Outdoors
+⚡️ Up to 70% off
+👉🏻 amzaff.in/092HVM2
+🛍 End Of Season Sale
+⚡️ Up to 70% off
+👉🏻 amzaff.in/ukuS1wj
+🏠 Home Shopping Spree
+📣 Sale live from 26th-30th July
+👉🏻 amzaff.in/dvgN1JH</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16:05:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+💥 Maximise earnings with Beauty commissions – Now increased to 10%
+🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
+⚡️ 80g @25% + 5% Off – ₹22
+👉🏻 amzaff.in/kyKGkVq
+🧼 Cetaphil Brightness Reveal Creamy Cleanser
+⚡️ 100g @25% Off – ₹599
+👉🏻 amzaff.in/2QkCAT6
+💆‍♀️ Herbal Essences bio:renew Argan Oil of Morocco Shampoo
+⚡️ 400ml @60% Off – ₹260
+👉🏻 amzaff.in/WPdHenG
+🧴 Be Bodywise 6% AHA BHA Underarm Roll On Deodorant
+⚡️ 50ml | Alcohol &amp; Aluminum Free – ₹399
+👉🏻 amzaff.in/3YBXpxC
+🕺 Park Avenue Voyage Signature Collection Perfume for Men
+⚡️ 120ml @57% Off – ₹171
+👉🏻 amzaff.in/IQsEdXX</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💻 **DEMO Level Gaming Laptops**
+⚡️ Up to 45% off
+👉🏻 amzaff.in/FeVABNi
+🔥 Gaming Laptops Under ₹80,000 🔥
+💻 ASUS TUF A15 GAMING
+⚡️ ~~₹83,990~~ | ₹63,990
+⚡️ Effective price ₹56,490
+👉🏻 amzaff.in/HNJJ4b3
+💻 HP VICTUS GAMING
+⚡️ ~~₹99,382~~ | ₹82,990
+⚡️ Effective price ₹77,490
+👉🏻 amzaff.in/rIYTx8U
+💻 LENOVO LOQ GAMING
+⚡️ ~~₹1,12,990~~ | ₹87,190
+⚡️ Effective price ₹77,190
+👉🏻 amzaff.in/Q2oXx7g
+💻 ACER NITRO V GAMING
+⚡️ ~~₹89,999~~ | ₹70,990
+⚡️ Effective price ₹67,490
+👉🏻 amzaff.in/Es6mtU0
+💻 DELL G15 GAMING
+⚡️ ~~₹1,06,331~~ | ₹77,490
+⚡️ Effective price ₹68,990
+👉🏻 amzaff.in/MMEYXBc
+💻 ASUS CREATOR SERIES
+⚡️ ~~₹85,990~~ | ₹72,990
+⚡️ Effective price ₹66,490
+👉🏻 amzaff.in/R4IV7C8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/post_logs.xlsx
+++ b/logs/post_logs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,6 +1081,2543 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>06:00:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 LIVE NOW**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **SMARTPHONES | DEALS ON YOUR FAVOURITE BRANDS 🔥**
+📱 **OnePlus Nord 5**
+⚡ ₹ ~~34,999~~ | ₹31,999
+⚡ Effective price: ₹29,999
+👉🏻 amzaff.in/SWnxp01
+📱 **OnePlus Nord CE4**
+⚡ ₹ ~~24,999~~ | ₹19,999
+⚡ Effective price: ₹18,999
+👉🏻 amzaff.in/qKFOpaO
+📱 **OnePlus 13R**
+⚡ ₹ ~~44,999~~ | ₹42,999
+⚡ Effective price: ₹36,999
+👉🏻 amzaff.in/TsawrFR
+📱 **OnePlus Nord CE5**
+⚡ ₹ ~~24,999~~ | ₹24,999
+⚡ Effective price: ₹22,999
+👉🏻 amzaff.in/YRddBp5
+📱 **OnePlus 13**
+⚡ ₹ ~~72,999~~ | ₹72,999
+⚡ Effective price: ₹62,999
+👉🏻 amzaff.in/lmpOSdg
+📱 **OnePlus Nord CE4 Lite 5G**
+⚡ ₹ ~~20,999~~ | ₹17,999
+⚡ Effective price: ₹15,999
+👉🏻 amzaff.in/oMOYGsm
+# **Including bank offer**</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>06:30:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 LIVE NOW**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+💻 **High performance laptops**
+⚡ Up to 45% off
+👉🏻 amzaff.in/JsOfmAh
+💻 **Dell Inspiron 13 AI**
+⚡ ₹ ~~1,27,601~~ | ₹99,590
+⚡ Effective price ₹94,590
+👉🏻 amzaff.in/R6i8Zwm
+💻 **HP Omnibook 5 Snapdragon**
+⚡ ₹ ~~88,226~~ | ₹69,990
+⚡ Effective price ₹62,740
+👉🏻 amzaff.in/BD5GYd2
+💻 **Asus Zenbook Ultra 7**
+⚡ ₹ ~~1,39,990~~ | ₹1,17,990
+⚡ Effective price ₹1,09,740
+👉🏻 amzaff.in/ZBJPXPs
+💻 **Lenovo Ideapad Ryzen AI 7**
+⚡ ₹ ~~1,25,890~~ | ₹81,990
+⚡ Effective price ₹76,990
+👉🏻 amzaff.in/JQSAKEA
+💻 **Microsoft Surface Pro 11**
+⚡ ₹ ~~1,65,999~~ | ₹1,56,990
+⚡ Effective price ₹1,46,990
+👉🏻 amzaff.in/jT50OSc
+💻 **Lenovo Ideapad Pro Ultra 9**
+⚡ ₹ ~~1,39,490~~ | ₹99,990
+⚡ Effective price ₹94,990
+👉🏻 amzaff.in/o4HC8wW</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>07:00:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 LIVE NOW**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **Premium Appliances**
+⚡ Up to 65% off
+👉🏻 amzaff.in/mFKkfcZ
+🚩 **Samsung 28 L**
+⚡ ₹ ~~15,590~~ | ₹11,890
+👉🏻 amzaff.in/BP9KipL
+🚩 **Crompton 90 cm**
+⚡ ₹ ~~26,590~~ | ₹13,040
+👉🏻 amzaff.in/ZNxE1sW
+🚩 **Samsung 1.5 Ton 3 Star**
+⚡ ₹ ~~56,990~~ | ₹31,490
+👉🏻 amzaff.in/HNvynG3
+🚩 **Carrier 1.5 Ton 3 Star**
+⚡ ₹ ~~68,790~~ | ₹32,489
+👉🏻 amzaff.in/za44iwC
+🚩 **Haier 596 L**
+⚡ ₹ ~~1,21,899~~ | ₹55,890
+👉🏻 amzaff.in/zriJZ7o
+🚩 **LG 655 L**
+⚡ ₹ ~~1,10,399~~ | ₹61,990
+👉🏻 amzaff.in/SdWwxYX</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>07:30:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 LIVE NOW**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **Smartphones | Grand Freedom Finds 🔥**
+📱 **iQOO Neo 10R 5G**
+⚡ ₹ ~~31,999~~ | ₹22,999
+👉🏻 amzaff.in/IYJ7Gss
+📱 **Samsung Galaxy M36 5G**
+⚡ ₹ ~~22,999~~ | ₹15,999
+👉🏻 amzaff.in/pBHmmW0
+📱 **realme NARZO 80 Pro 5G**
+⚡ ₹ ~~23,999~~ | ₹17,149
+👉🏻 amzaff.in/8Dc7esL
+📱 **OnePlus 13R**
+⚡ ₹ ~~44,999~~ | ₹36,999
+👉🏻 amzaff.in/I7vb7XE
+📱 **Redmi 13 Prime 8+128 GB**
+⚡ ₹ ~~19,999~~ | ₹11,699
+👉🏻 amzaff.in/4UVY8zr
+📱 **iQOO Z10**
+⚡ ₹ ~~25,999~~ | ₹19,999
+👉🏻 amzaff.in/iIN832N
+# **Including bank offer**
+# Including bank and coupon offer</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 LIVE NOW**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **Unmissable Deals**
+⚡ 50-70% off
+👉🏻 amzaff.in/ZOqqCgU
+👜 **Hidesign Handcrafted Premium Bag**
+⚡ ₹ ~~14,595~~ | ₹5,839
+- 60% + 2% extra off via coupons
+👉🏻 amzaff.in/iW9HDCy
+👜 **Miraggio Premium Laptop Bag**
+⚡ ₹ ~~14,595~~ | ₹5,839
+- 27% + 2% extra off via coupons
+👉🏻 amzaff.in/KGRxxgv
+👜 **Zouk Vegan Leather Bag**
+⚡ ₹ ~~14,595~~ | ₹5,839
+- 69% + 2% extra off via coupons
+👉🏻 amzaff.in/Wxx05k2
+👜 **Lavie Signature Satchel Handbag**
+⚡ ₹ ~~14,595~~ | ₹5,839
+- 45% + 2% extra off via coupons
+👉🏻 amzaff.in/p8ZWsez
+👜 **Miraggio Premium Bag**
+⚡ ₹ ~~14,595~~ | ₹5,839
+- 37% + 2% extra off via coupons
+👉🏻 amzaff.in/edRhn4p
+👜 **Zouk Vegan Leather Bag**
+⚡ ₹ ~~14,595~~ | ₹5,839
+- 60% + 2% extra off via coupons
+👉🏻 amzaff.in/rgqx51O</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 LIVE NOW**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **Premium Appliances**
+⚡ Up to 65% off
+👉🏻 amzaff.in/mFKkfcZ
+🚩 **Samsung 9 Kg 5 Star**
+⚡ ₹ ~~50,990~~ | ₹28,990
+👉🏻 amzaff.in/Hs0pzwq
+🚩 **LG 9 Kg 5 Star**
+⚡ ₹ ~~53,990~~ | ₹28,990
+👉🏻 amzaff.in/wkCVzys
+🚩 **Samsung 9 Kg 5 Star**
+⚡ ₹ ~~30,500~~ | ₹18,990
+👉🏻 amzaff.in/uIGMSqe
+🚩 **Samsung 653 L**
+⚡ ₹ ~~1,13,000~~ | ₹60,990
+👉🏻 amzaff.in/LE64Dqk
+🚩 **LG 655 L**
+⚡ ₹ ~~1,10,399~~ | ₹61,990
+👉🏻 amzaff.in/VyxSAEO
+🚩 **Haier 596 L**
+⚡ ₹ ~~1,21,899~~ | ₹55,890
+👉🏻 amzaff.in/KiQhuh5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 LIVE NOW**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **Biggest Deals On Laptops 🔥**
+💻 **HP 15 13th Gen i3**
+⚡ ₹ ~~51,449~~ | ₹36,990
+⚡ Effective price ₹36,990
+👉🏻 amzaff.in/MKvCj6D
+💻 **Dell 15 Intel 13th Gen i3**
+⚡ ₹ ~~54,479~~ | ₹36,990
+⚡ Effective price ₹33,990
+👉🏻 amzaff.in/nTQxEZh
+💻 **Asus Vivobook Ryzen 3**
+⚡ ₹ ~~43,990~~ | ₹30,990
+⚡ Effective price ₹26,990
+👉🏻 amzaff.in/bHmS2WH
+💻 **Lenovo Ideapad Slim Ryzen 5**
+⚡ ₹ ~~59,090~~ | ₹37,990
+⚡ Effective price ₹35,740
+👉🏻 amzaff.in/DLjdRP6
+💻 **Acer Aspire Lite i3**
+⚡ ₹ ~~50,990~~ | ₹30,990
+⚡ Effective price ₹28,990
+👉🏻 amzaff.in/gi5cN5K
+💻 **HP 15 Ryzen 7**
+⚡ ₹ ~~56,990~~ | ₹46,990
+⚡ Effective price ₹46,990
+👉🏻 amzaff.in/1gCI2Ba</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>09:30:00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 LIVE NOW**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **Smartphones | Price Crash Alert 🔥**
+📱 **Galaxy A55 5G**
+⚡ ₹ ~~42,999~~ | ₹24,999
+👉🏻 amzaff.in/mbACqy7
+📱 **OnePlus Nord CE4**
+⚡ ₹ ~~24,999~~ | ₹18,999
+👉🏻 amzaff.in/IeNJ2NV
+📱 **Tecno Pop 9**
+⚡ ₹ ~~8,499~~ | ₹5,400
+👉🏻 amzaff.in/6K7yuVt
+📱 **NARZO 80 Pro 5G**
+⚡ ₹ ~~23,999~~ | ₹17,149
+👉🏻amzaff.in/xICYKiJ
+📱 **Lava Bold N1 pro**
+⚡ ₹ ~~8,399~~ | ₹6,029
+👉🏻 amzaff.in/cVdWnsW
+📱 **Itel Zeno 10**
+⚡ ₹ ~~7,399~~ | ₹5,399
+👉🏻 amzaff.in/5Hs4KQL
+# **Including bank offer**
+# Including bank and coupon offer</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>9</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 LIVE NOW**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **Super Saving Offers**
+⚡ Up to 50% off
+👉🏻 amzaff.in/ahgtPlL
+👟 **PUMA**
+⚡ Min. 60% off
++ Extra up to 5% off
+👉🏻 amzaff.in/nUtnN7a
+👠 **CARLTON LONDON**
+⚡ Min. 60% off
++ Extra up to 5% off
+👉🏻 amzaff.in/dtWLtrP
+👠 **MOCHI**
+⚡ Min. 50% off
++ Extra up to 5% off
+👉🏻 amzaff.in/f11XID2
+👟 **SKECHERS**
+⚡ Min. 50% off
++ Extra up to 5% off
+👉🏻 amzaff.in/5Kxan55
+🩴 **DOCTOR Extra Soft**
+⚡ Min. 50% off
++ Extra up to ₹200 off
+👉🏻 amzaff.in/FlsqHOi
+👠 **METRO SHOES**
+⚡ Min. 50% off
++ Extra up to 5% off
+👉🏻 amzaff.in/rKxqPJM</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 LIVE NOW**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **Deals On Gaming Smartphones 🔥**
+📱 **Samsung Galaxy S24 Ultra 5G**
+⚡ ₹ ~~1,34,999~~ | ₹79,999
+👉🏻 amzaff.in/5POynAK
+📱 **realme GT 7 Pro**
+⚡ ₹ ~~69,999~~ | ₹44,999
+👉🏻 amzaff.in/hws1Bkc
+📱 **OnePlus Nord 5**
+⚡ ₹ ~~34,999~~ | ₹29,999
+👉🏻 amzaff.in/KOAWjyJ
+📱 **iQOO Neo 10**
+⚡ ₹ ~~36,999~~ | ₹29,999
+👉🏻 amzaff.in/yJyDAeG
+📱 **realme NARZO 80 Pro 5G**
+⚡ ₹ ~~23,999~~ | ₹17,499
+👉🏻 amzaff.in/wVs5G5z
+📱 **iQOO Neo 10R**
+⚡ ₹ ~~31,999~~ | ₹25,499
+👉🏻 amzaff.in/9aQhfzB
+# **Including bank offer**
+# Including coupon offer</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 LIVE NOW**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **Top Deals On Kitchen Appliances 🔥**
+🚩 **Elica 60 Cm**
+⚡ ₹ ~~28,990~~ | ₹13,990
+👉🏻 amzaff.in/txxJ1QN
+🚩 **Crompton 60 Cm**
+⚡ ₹ ~~35,590~~ | ₹14,990
+👉🏻 amzaff.in/ANZLXiO
+🚩 **KAFF K-Series 60 Cm**
+⚡ ₹ ~~26,590~~ | ₹8,990
+👉🏻 amzaff.in/KyOguIF
+🚩 **Glen 90 Cm**
+⚡ ₹ ~~39,990~~ | ₹19,990
+👉🏻 amzaff.in/X6JpNHi
+🚩 **Faber 60 Cm**
+⚡ ₹ ~~29,990~~ | ₹10,990
+👉🏻 amzaff.in/ETYtYWz
+🚩 **Beyond 60 Cm**
+⚡ ₹ ~~29,990~~ | ₹16,999
+👉🏻 amzaff.in/FVLuPWH</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>12</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11:30:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 LIVE NOW**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+💰 **Maximise earnings with Apparel commissions – Now increased to 10% 💸**
+🔥 **Unmissable Deals**
+⚡ Min. 60% off
+👉🏻 amzaff.in/Im5k7u7
+🚩 **Trendy t-shirts**
+⚡ Under ₹499
+👉🏻 amzaff.in/yNAaW5X
+🚩 **Formal wear**
+⚡ Under ₹399
+👉🏻 amzaff.in/X7k2iLw
+🚩 **Jeans**
+⚡ Under ₹699
+👉🏻 amzaff.in/4yHBgW0
+🚩 **Accessories**
+⚡ Under ₹499
+👉🏻 amzaff.in/vqaLdeE
+🚩 **Polos**
+⚡ Under ₹499
+👉🏻 amzaff.in/klCu7qW
+🚩 **Sportswear**
+⚡ Under ₹499
+👉🏻 amzaff.in/B3Px4gD</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>13</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 LIVE NOW**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **Budget Friendly Headphones 🔥**
+🎧 **boAt Nirvana Ion**
+⚡ ₹ ~~7,990~~ | ₹1,499
+👉🏻 amzaff.in/hDVkmZj
+🎧 **pTron Bassbuds Gomax**
+⚡ ₹ ~~2,899~~ | ₹499
+👉🏻 amzaff.in/5djdlex
+🎧 **GoBoult Mustang Torq**
+⚡ ₹ ~~5,999~~ | ₹1,799
+👉🏻 amzaff.in/sfmFuAw
+🎧 **Mivi DuoPods i2**
+⚡ ₹ ~~2,999~~ | ₹699
+👉🏻 amzaff.in/Jiy8Kxu
+🎧 **Noise N1 pro**
+⚡ ₹ ~~4,999~~ | ₹1,499
+👉🏻 amzaff.in/MBkGuct
+🎧 **Truke Mega 9**
+⚡ ₹ ~~3,999~~ | ₹1,049
+👉🏻 amzaff.in/gKeXQDX</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>14</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 LIVE NOW**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+⌨️ **Computer Accessories**
+⚡ Up to 75% off
+👉🏻 amzaff.in/cKn4oQB
+🖱️ **HP 710 Rechargeable Silent Mouse**
+⚡ ₹ ~~6,494~~ | ₹4,199
+👉🏻 amzaff.in/5J82m28
+🖱️ **Dell MS116 Wired Optical Mouse**
+⚡ ₹ ~~650~~ | ₹289
+👉🏻 amzaff.in/5OXXx6l
+🖱️ **Lenovo 600 Bluetooth 5.0 Silent Mouse**
+⚡ ₹ ~~2,890~~ | ₹1,549
+👉🏻 amzaff.in/6KrxOhp
+⌨️ **Zebronics Zeb-Companion 107 Wireless Keyboard and Mouse**
+⚡ ₹ ~~999~~ | ₹499
+👉🏻 amzaff.in/qcmIX35
+⌨️ **typecase Edge Magic Keyboard**
+⚡ ₹ ~~19,999~~ | ₹7,890
+⚡ Effective price: ₹7,101
+👉🏻 amzaff.in/0VDdT3G
+⌨️ **Portronics USB Wired Keyboard**
+⚡ ₹ ~~999~~ | ₹399
+👉🏻 amzaff.in/nPfi1Es</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>15</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 LIVE NOW**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+💰 **Maximise earnings with Home Improvement commissions – Now increased to 9% 💸**
+🛠️ **Tools &amp; home improvement**
+⚡ Up to 60% off
+👉🏻 amzaff.in/fCMCTds
+🚩 **Foldable ladders**
+⚡ Under ₹2,999
+👉🏻 amzaff.in/tMoZIl2
+🚩 **Bathroom mirror cabinet**
+⚡ Starting ₹999
+👉🏻 amzaff.in/csArKY4
+🚩 **Screw driver kit**
+⚡ Min. 50% off
+👉🏻 amzaff.in/5jwZPg0
+🚩 **Drill machines**
+⚡ Min. 40% off
+👉🏻 amzaff.in/PLQ4asU
+🚩 **Kitchen accessories**
+⚡ Min. 25% off
+👉🏻 amzaff.in/6ZG8yDj
+🚩 **Shower heads**
+⚡ Min. 25% off
+👉🏻 amzaff.in/vtQRn07</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>16</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13:30:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 LIVE NOW**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🛒 **Daily Needs**
+⚡ Up to 60% off
+👉🏻 amzaff.in/KDjgFDJ
+🚩 **Laundry**
+⚡ Up to 40% off
+👉🏻 amzaff.in/VfBoySq
+🚩 **Cleaners**
+⚡ Up to 40% off
+👉🏻 amzaff.in/4fZ2M52
+🚩 **Baby diapers &amp; wipes**
+⚡ Up to 65% off
+👉🏻 amzaff.in/xXca1A8
+🚩 **Baby bath &amp; skincare**
+⚡ Up to 60% off
+👉🏻 amzaff.in/em4uGEK
+🚩 **Oil &amp; ghee**
+⚡ Up to 40% off
+👉🏻 amzaff.in/qyszHUi
+🚩 **Rice, atta &amp; dal**
+⚡ Up to 60% off
+👉🏻 amzaff.in/frNFTz5</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>17</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 LIVE NOW**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+📷 **Camera &amp; Accessories**
+⚡ Up to 70% off
+👉🏻 amzaff.in/cuAu0rZ
+🚩 **DJI Osmo 360 Standard Combo**
+⚡ ₹ ~~53,990~~ | ₹44,990
+⚡ Effective price: ₹42,740 
+👉🏻 amzaff.in/4CqWM78
+🚩 **Gopro Hero13 Black in Forest Green**
+⚡ ₹ ~~44,900~~ | ₹34,990
+⚡ Effective price: ₹33,240 
+👉🏻 amzaff.in/llGakfO
+🚩 **DJI Osmo 360 Adventtre Combo**
+⚡ ₹ ~~66,990~~ | ₹54,990
+⚡ Effective price: ₹51,990 
+👉🏻 amzaff.in/C5yxO1a
+🚩 **Digitek Wireless Microphone**
+⚡ ₹ ~~6,995~~ | ₹4,099
+👉🏻 amzaff.in/N7G0ZeE
+🚩 **Digitek LED Video Light**
+⚡ ₹ ~~3,995~~ | ₹1,599
+👉🏻 amzaff.in/OxhF3xf
+🚩 **Digitek Mic Adapter**
+⚡ ₹ ~~1,495~~ | ₹799
+👉🏻 amzaff.in/nxxi9ep</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>18</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 LIVE NOW**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+📚 **Books**
+⚡ Up to 60% off
+👉🏻 amzaff.in/SELi0ip
+🚩 **40 handpicked boxsets**
+⚡ Min. 40% off
+👉🏻 amzaff.in/DORKPDu
+🚩 **25 new releases**
+⚡ Min. 25% off
+👉🏻 amzaff.in/3Ry2unV
+🚩 **Top 100 non-fiction**
+⚡Under ₹299
+👉🏻 amzaff.in/iuWNpeF
+🚩 **30 interactive books**
+⚡Under ₹149
+👉🏻 amzaff.in/qsSqXt7
+🚩 **50 premium hardcovers**
+⚡ Min. 40% off
+👉🏻 amzaff.in/Aa2826s
+🚩 **Top 20 bestsellers**
+⚡ Min. 40% off
+👉🏻 amzaff.in/3MPbOGR</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>19</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 LIVE NOW**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+📱 **Mobile Accessories**
+⚡ Up to 80% off
+👉🏻 amzaff.in/mUBqVJU
+🚩 **Duracell Magnetic Power Bank**
+⚡ ₹ ~~4,999~~ | ₹2,499
+👉🏻 amzaff.in/iQrE94L
+🚩 **Dubstep Power Bank**
+⚡ ₹ ~~3,999~~ | ₹1,631
+👉🏻 amzaff.in/8VRQ03d
+🚩 **Spigen ArcPack Power Bank**
+⚡ ₹ ~~3,099~~ | ₹2,999
+👉🏻 amzaff.in/gEubckk
+🚩 **Spigen ArcPack Power Bank**
+⚡ ₹ ~~3,499~~ | ₹3,089
+👉🏻 amzaff.in/k6z53RD
+🚩 **Anker Power Bank**
+⚡ ₹ ~~11,998~~ | ₹4,999
+👉🏻 amzaff.in/layUAYR
+🚩 **Amazon Basics Power Bank**
+⚡ ₹ ~~3,999~~ | ₹1,299
+👉🏻 amzaff.in/CrNi4Go</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 LIVE NOW**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **Deals On Electronics and Accessories 🔥**
+🚩 **Cello**
+⚡ Buy 2 get,
+⚡ Up to 5% off
+👉🏻 amzaff.in/F7aCrRp
+🚩 **Factor Notes**
+⚡ Buy 2 get,
+⚡ Up to 5% off
+👉🏻 amzaff.in/Jf0BVli
+🚩 **Luxor &amp; parker**
+⚡ Buy 2 get,
+⚡ Up to 5% off
+👉🏻 amzaff.in/U2gQC8u
+🚩 **3M**
+⚡ Buy 2 get,
+⚡ Up to 5% off
+👉🏻 amzaff.in/J7tDUF9
+🚩 **Target**
+⚡ Buy 2 get,
+⚡ Up to 5% off
+👉🏻 amzaff.in/ZSJF9xF
+🚩 **Faber Castell**
+⚡ Buy 2 get,
+⚡ Up to 5% off
+👉🏻 amzaff.in/gBsOGDC</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>06:00:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 Ends tomorrow**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **Smartphones | Grand Freedom Finds 🔥**
+📱 **Samsung Galaxy M36 5G**
+⚡ ₹ ~~22,999~~ | ₹ 15,999
+👉🏻 amzaff.in/9ZTrNYk
+📱 **Redmi A4 5G**
+⚡ ₹ ~~10,999~~ | ₹ 7,999
+👉🏻 amzaff.in/XNflYFW
+📱 **realme NARZO 80 pro 5G**
+⚡ ₹ ~~23,999~~ | ₹ 17,149
+👉🏻 amzaff.in/qTposox
+📱 **iQOO Z10**
+⚡ ₹ ~~25,999~~ | ₹ 19,999
+👉🏻 amzaff.in/UDMdot6
+📱 **OnePlus Nord CE5**
+⚡ ₹ ~~24,999~~ | ₹ 22,999
+👉🏻 amzaff.in/keMfK1p
+📱 **LAVA Blaze Dragon**
+⚡ ₹ ~~11,999~~ | ₹ 8,999
+👉🏻 amzaff.in/EIK8LwR
+# **Including bank offer**
+# Including bank &amp; coupon offer</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>06:30:00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 Ends tomorrow**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+❄️ **Air Conditioners | End of Season Deals ❄️**
+❄️ **LG 1 Ton 4 Star**
+⚡ ₹ ~~71,990~~ | ₹ 34,990
+👉🏻 amzaff.in/dOUuhVN
+❄️ **Carrier 1.5 Ton 5 Star**
+⚡ ₹ ~~76,090~~ | ₹ 42,989
+👉🏻 amzaff.in/vsIiCcI
+❄️ **Godrej 1.5 Ton 3 Star**
+⚡ ₹ ~~45,900~~ | ₹ 32,990
+👉🏻 amzaff.in/egFNK3f
+❄️ **Hitachi 1.5 Ton 5 Star**
+⚡ ₹ ~~75,850~~ | ₹ 44,490
+👉🏻 amzaff.in/c5BBw86
+❄️ **Lloyd 1.5 Ton 3 Star**
+⚡ ₹ ~~58,990~~ | ₹ 32,990
+👉🏻 amzaff.in/mdIefIy
+❄️ **Midea 1.5 Ton 3 Star**
+⚡ ₹ ~~62,290~~ | ₹ 31,980
+👉🏻 amzaff.in/DIRsP2y</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>07:00:00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 Ends tomorrow**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **Amazon Fashion**
+⚡ 50-80% off
+👑 Extra 10% cashback
+👉🏻 amzaff.in/4BMRa4H
+✨ **Big Brands, Bigger Offers ✨**
+🚩 **Louis Philippe**
+⚡ Min. 50% off
+👉🏻 amzaff.in/VdAa3U9
+🚩 **Puma**
+⚡ Min. 60% off
+👉🏻 amzaff.in/goMqynL
+🚩 **Allen Solly**
+⚡ Under ₹ 649
+👉🏻 amzaff.in/VwS30e2
+🚩 **The Derma**
+⚡ Under ₹ 499
+👉🏻 amzaff.in/xvJtGPx
+🚩 **Symbol Premium**
+⚡ Min. 50% off
++ Extra 5% off
+👉🏻 amzaff.in/YiSCW2v
+🚩 **Lavie Bags &amp; Shoes**
+⚡ Min. 70% off
+👉🏻 amzaff.in/cSNX1O6</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>4</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>07:30:00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 Ends tomorrow**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **Top Deals On Kitchen Appliances 🔥**
+🚩 **Crompton 60 Cm**
+⚡ ₹ ~~33,590~~ | ₹ 11,990
+👉🏻 amzaff.in/Dt5WOst
+🚩 **KAFF K-Series 60 Cm**
+⚡ ₹ ~~20,090~~ | ₹ 10,490
+👉🏻 amzaff.in/vSol0mw
+🚩 **Faber Agile 60 Cm**
+⚡ ₹ ~~28,990~~ | ₹ 15,990
+👉🏻 amzaff.in/PKnW5Vq
+🚩 **Elica 60 Cm**
+⚡ ₹ ~~24,990~~ | ₹ 9,990
+👉🏻 amzaff.in/0ULTb4o
+🚩 **LG 28 L Convection**
+⚡ ₹ ~~26,999~~ | ₹ 19,990
+👉🏻 amzaff.in/7ynW4i1
+🚩 **Samsung 28 L Convection**
+⚡ ₹ ~~15,590~~ | ₹ 12,890
+👉🏻 amzaff.in/uUOSqKB</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 Ends tomorrow**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+📱 **Mobile Accessories**
+⚡ Up to 80% off
+👉🏻 amzaff.in/9LcVamb
+🚩 **Samsung Buds 3**
+⚡ ₹ ~~24,999~~ | ₹ 11,999
+- Including coupon offer
+👉🏻 amzaff.in/O4jwhzn
+🚩 **Realme Air 7**
+⚡ ₹ ~~4,999~~ | ₹ 2,799
+👉🏻 amzaff.in/E4k9rYz
+🚩 **Mi Powerbank 4i**
+⚡ ₹ ~~3,999~~ | ₹ 1,799
+- Including coupon offer
+👉🏻 amzaff.in/7Mt51EJ
+🚩 **Spigen Cases**
+⚡ Up to 50% off
+👉🏻 amzaff.in/Bg2hQYV
+🚩 **boAt Nirvana Ivy Pro**
+⚡ ₹ ~~17,990~~ | ₹ 4,999
+👉🏻 amzaff.in/wBT12kc
+🚩 **Sony WH-1000XM5**
+⚡ ₹ ~~34,990~~ | ₹ 26,990
+👉🏻 amzaff.in/5xjt0Gw
+🚩 **Ambrane Magsafe Powerbank**
+⚡ ₹ ~~2,999~~ | ₹ 1,249
+👉🏻 amzaff.in/YzjjOPT
+🚩 **Amazon Basics Powerbank**
+⚡ ₹ ~~2,999~~ | ₹ 799
+👉🏻 amzaff.in/gE4k0zO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 Ends tomorrow**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **Deals On Amazon Smartspeakers 🔥**
+🚩 **Echo Dot 5th gen + smart bulb**
+⚡ ₹ ~~7,598~~ | ₹ 6,049
+👉🏻 amzaff.in/HKOjHZv
+🚩 **Echo Pop + Smart Bulb**
+⚡ ₹ ~~7,098~~ | ₹ 4,499
+👉🏻 amzaff.in/IpMoRF4
+🚩 **Echo Show 8 + Smart Bulb**
+⚡ ₹ ~~16,098~~ | ₹ 10,549
+👉🏻 amzaff.in/s2mbo3k
+🚩 **Echo Spot + Smart Bulb**
+⚡ ₹ ~~11,098~~ | ₹ 9,049
+👉🏻 amzaff.in/5E4fOzJ
+🚩 **Alexa combo for kids**
+⚡ ₹ ~~7,997~~ | ₹ 4,499
+👉🏻 amzaff.in/mwKezsb
+🚩 **Echo 4th Gen + Smart bulb**
+⚡ ₹ ~~12,098~~ | ₹ 6,549
+👉🏻 amzaff.in/ncTJAHq</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 Ends tomorrow**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🛋️ **Furniture &amp; mattresses**
+⚡ 50-80% off
+- Up to ₹1,200 cashback for Prime Members
+👉🏻 amzaff.in/U1lgCMB
+🚩 **Furneaser stenza bookshelf**
+⚡ ₹ ~~11,158~~ | ₹ 5,499
+👉🏻 amzaff.in/IpTBg75
+🚩 **Godrej interio 2-door almirah**
+⚡ ₹ ~~42,527~~ | ₹ 18,990
+👉🏻 amzaff.in/x3g2Omo
+🚩 **About space shoe rack**
+⚡ ₹ ~~12,499~~ | ₹ 4,499
+👉🏻 amzaff.in/fkUz7IS
+🚩 **Green soul imperium height adjustable table**
+⚡ ₹ ~~49,073~~ | ₹ 12,990
+👉🏻 amzaff.in/HwBTwYx
+🚩 **Green soul coffee table**
+⚡ ₹ ~~8,990~~ | ₹ 2,790
+👉🏻 amzaff.in/bbzwDSd
+🚩 **Nilkamal recliner**
+⚡ ₹ ~~47,900~~ | ₹ 14,490
+👉🏻 amzaff.in/6sYzQwQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>8</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>09:30:00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 Ends tomorrow**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+📱 **Smartphones**
+⚡ Up to 80% off
+👉🏻 amzaff.in/k8i8lBq
+🔥 **New Launches 🔥**
+💥 **Freedom Sale Deal**
+📱 Samsung Galaxy M36 5G
+⚡ ₹ ~~22,999~~ | ₹ 17,499
+⚡ Effective price: ₹ 15,999
+- Including bank &amp; coupon offer
+👉🏻 amzaff.in/N8CXbI1
+💥 **Just Launched**
+📱 Samsung Galaxy Z Flip 7 5G
+⚡ ₹ ~~1,09,999~~ | ₹ 1,09,999
+⚡ Effective price: ₹ 1,09,999
+👉🏻 amzaff.in/IgHjRJS
+💥 **Just Launched**
+📱 Samsung Galaxy Z Flip 7 FE 5G
+⚡ ₹ ~~89,999~~ | ₹ 89,999
+⚡ Effective price: ₹ 89,999
+👉🏻 amzaff.in/lbsAoUo
+💥 **Just Launched**
+📱 Samsung Galaxy Z Fold 7
+⚡ ₹ ~~1,74,999~~ | ₹ 1,74,999
+⚡ Effective price: ₹ 1,74,999
+👉🏻 amzaff.in/RwHLMRK
+💥 **Freedom Sale Deal**
+📱 Samsung Galaxy M06 5G
+⚡ ₹ ~~13,999~~ | ₹ 8,699
+⚡ Effective price: ₹ 8,499
+👉🏻 amzaff.in/CEf1B4Z
+💥 **Freedom Sale Deal**
+📱 Samsung Galaxy M05
+⚡ ₹ ~~9,999~~ | ₹ 6,249
+⚡ Effective price: ₹ 6,249
+👉🏻 amzaff.in/RpXJXtv
+💥 **Freedom Sale Deal**
+📱 Samsung Galaxy M35 5G
+⚡ ₹ ~~25,999~~ | ₹ 16,499
+⚡ Effective price: ₹ 16,499
+👉🏻 amzaff.in/6ZLZEKp
+💥 **Freedom Sale Deal**
+📱 Samsung Galaxy M16 5G
+⚡ ₹ ~~15,999~~ | ₹ 10,999
+⚡ Effective price: ₹ 10,999
+👉🏻 amzaff.in/Kz15RbF</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 Ends tomorrow**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+💻 **High Performance Laptops**
+⚡ Up to 45% off
+👉🏻 amzaff.in/4ZasxOQ
+🔥 **Biggest Deals | Ends tomorrow 🔥**
+💻 **Lenovo Ideapad Pro Ultra 9**
+⚡ ₹ ~~1,59,490~~ | ₹ 99,990
+⚡ Effective price: ₹ 94,990
+👉🏻 amzaff.in/g0sQs2C
+💻 **HP Pavilion x360 i5**
+⚡ ₹ ~~91,615~~ | ₹ 65,990
+⚡ Effective price: ₹ 60,240
+👉🏻 amzaff.in/cVu7Jcc
+💻 **Dell Inspiron i7**
+⚡ ₹ ~~88,997~~ | ₹ 65,990
+⚡ Effective price: ₹ 58,990
+👉🏻 amzaff.in/Fnvncjd
+💻 **Asus Vivobook i7**
+⚡ ₹ ~~85,990~~ | ₹ 58,990
+⚡ Effective price: ₹ 55,740
+👉🏻 amzaff.in/0AhOXWO
+💻 **Lenovo Thinkbook Ryzen 5**
+⚡ ₹ ~~87,800~~ | ₹ 46,990
+⚡ Effective price: ₹ 45,240
+👉🏻 amzaff.in/Hdqtpzx
+💻 **Acer Aspire Lite Ryzen 3**
+⚡ ₹ ~~46,990~~ | ₹ 28,490
+⚡ Effective price: ₹ 25,490
+👉🏻 amzaff.in/UPpUMNo</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 Ends tomorrow**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **Deals On Grooming Devices**
+⚡ Up to 60% off
+👉🏻 amzaff.in/lrQUE8a
+🚩 **Philips 2-in-1 Airstyler**
+⚡ ₹ ~~4,495~~ | ₹ 3,899
+👉🏻 amzaff.in/nBlYbFi
+🚩 **Havells Hair Dryer with Diffuser**
+⚡ ₹ ~~2,195~~ | ₹ 1,899
+👉🏻 amzaff.in/r9yjesL
+🚩 **Ikonic Hair Straightner**
+⚡ ₹ ~~9,000~~ | ₹ 5,999
+👉🏻 amzaff.in/Cejn6QL
+🚩 **Philips Body Trimmer**
+⚡ ₹ ~~2,495~~ | ₹ 1,799
+👉🏻 amzaff.in/RhiUdF9
+🚩 **Vega Foldable Hair Dryer**
+⚡ ₹ ~~1,399~~ | ₹ 599
+👉🏻 amzaff.in/v0CIed1
+🚩 **Braun Face Mini Hair Remover**
+⚡ ₹ ~~1,999~~ | ₹ 1,599
+👉🏻 amzaff.in/oGZrAZH</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>11</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 Ends tomorrow**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+📱 **Smartphones**
+⚡ Up to 80% off
+👉🏻 amzaff.in/k8i8lBq
+🔥 **New Launches 🔥**
+💥 **Just Launched**
+📱 iQ00 Z10R 5G
+⚡ ₹ ~~23,499~~ | ₹ 19,499
+⚡ Effective price: ₹ 18,499
+👉🏻 amzaff.in/UrPdwjP
+💥 **Freedom Sale Deal**
+📱 iQ00 Neo 10R
+⚡ ₹ ~~31,999~~ | ₹ 26,999
+⚡ Effective price: ₹ 25,499
+👉🏻 amzaff.in/qUxrARe
+💥 **Freedom Sale Deal**
+📱 iQ00 Z10x 5G
+⚡ ₹ ~~17,499~~ | ₹ 13,499
+⚡ Effective price: ₹ 12,749
+👉🏻 amzaff.in/Vyoracc
+💥 **Freedom Sale Deal**
+📱 iQ00 Z10 Lite 5G
+⚡ ₹ ~~13,999~~ | ₹ 9,999
+👉🏻 amzaff.in/kiarFBH
+💥 **Freedom Sale Deal**
+📱 iQ00 13 5G
+⚡ ₹ ~~61,999~~ | ₹ 54,999
+⚡ Effective price: ₹ 52,999
+👉🏻 amzaff.in/gWQhq3j
+💥 **Freedom Sale Deal**
+📱 iQ00 Neo 10
+⚡ ₹ ~~36,999~~ | ₹ 31,999
+⚡ Effective price: ₹ 29,999
+👉🏻 amzaff.in/FOXqAtN
+💥 **Freedom Sale Deal**
+📱 iQ00 Z10 5G
+⚡ ₹ ~~25,999~~ | ₹ 21,999
+⚡ Effective price: ₹ 19,999
+👉🏻 amzaff.in/VqhXRsC
+💥 **Lowest Ever Price**
+📱 iQ00 Z9s 5G
+⚡ ₹ ~~25,999~~ | ₹ 18,999
+⚡ Effective price: ₹ 16,999
+👉🏻 amzaff.in/8l2wH4t
+# **Including bank offer**
+# Including bank &amp; coupon offer</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>12</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11:30:00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 Ends tomorrow**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **Top Deals On Kitchen Appliances 🔥**
+♨️ **Candy 19 L Solo**
+⚡ ₹ ~~8,500~~ | ₹ 4,490
+👉🏻 amzaff.in/G4Kaq0V
+♨️ **LG 28 L Convection**
+⚡ ₹ ~~16,999~~ | ₹ 12,989
+👉🏻 amzaff.in/p1zxib4
+♨️ **IFB 24 L Solo**
+⚡ ₹ ~~8,790~~ | ₹ 6,790
+👉🏻 amzaff.in/JcN12if
+♨️ **Panasonic 23 L Convection**
+⚡ ₹ ~~14,990~~ | ₹ 10,190
+👉🏻 amzaff.in/Zg5Ke2M
+♨️ **IFB 30 L Convection**
+⚡ ₹ ~~19,390~~ | ₹ 14,490
+👉🏻 amzaff.in/9NofKa9
+♨️ **Midea 20 L solo**
+⚡ ₹ ~~9,990~~ | ₹ 4,690
+👉🏻 amzaff.in/yAzCq33</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>13</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 Ends tomorrow**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **Blockbuster Deals**
+⚡ Up to 80% off
+👉🏻 amzaff.in/0J0LBQF
+🚩 **Ugaoo**
+⚡ Up to 60% off
++ Extra up to 3% off
+👉🏻 amzaff.in/BHGftPx
+🚩 **Plantex**
+⚡ Min. 50% off
++ Extra up to 5% off
+👉🏻 amzaff.in/qN22UGz
+🚩 **Larah**
+⚡ Up to 60% off
++ Extra up to 3% off
+👉🏻 amzaff.in/cphmH7G
+🚩 **Centaury**
+⚡ Min. 50% off
++ Extra up to ₹ 500 off
+👉🏻 amzaff.in/bm3Cpwy
+🚩 **Amazon basics**
+⚡ Min. 50% off
++ Extra up to 5% off
+👉🏻 amzaff.in/GatH4ys
+🚩 **Gadda Co.**
+⚡ Min. 50% off
++ Extra up to 5% off
+👉🏻 amzaff.in/aGWrqWw</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>14</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 Ends tomorrow**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🛒 **Daily Needs**
+⚡ Up to 60% off
+👉🏻 amzaff.in/KDjgFDJ
+🔥 **Budget Friendly Deals 🔥**
+⚡ **Under ₹ 199**
+👉🏻 amzaff.in/I5c3ssX
+⚡ **Under ₹ 299**
+👉🏻 amzaff.in/3PjLUDB
+⚡ **Under ₹ 399**
+👉🏻 amzaff.in/HNgxxm7
+⚡ **Under ₹ 499**
+👉🏻 amzaff.in/o3cUe28
+⚡ **Under ₹ 699**
+👉🏻 amzaff.in/NZR90Qv
+⚡ **Under ₹ 999**
+👉🏻 amzaff.in/sr4S8rm</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>15</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 Ends tomorrow**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🎧 **Truly wireless &amp; headphones**
+⚡ Up to 70% off
+👉🏻 amzaff.in/oMi6LEy
+🎧 **soundcore V20i**
+⚡ ₹ ~~7,998~~ | ₹ 1,997
+👉🏻 amzaff.in/yPYuAjg
+🎧 **Zebronics Silencio 111**
+⚡ ₹ ~~8,999~~ | ₹ 2,799
+👉🏻 amzaff.in/M44hfjd
+🎧 **OnePlus Nord Buds 2r**
+⚡ ₹ ~~2,299~~ | ₹ 1,399
+👉🏻 amzaff.in/BAcG7tV
+🎧 **boAt Nirvana Ivy Pro**
+⚡ ₹ ~~17,990~~ | ₹ 4,999
+👉🏻 amzaff.in/7pqrpQq
+🎧 **Realme T310**
+⚡ ₹ ~~3,999~~ | ₹ 1,699
+👉🏻 amzaff.in/ktS5tcP
+🎧 **JBL 510 BT**
+⚡ ₹ ~~4,499~~ | ₹ 1,999
+👉🏻 amzaff.in/UhYHJtE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>16</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>13:30:00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 Ends tomorrow**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **Car, Bike Parts &amp; Accessories**
+⚡ Starting ₹ 99
+👉🏻 amzaff.in/zeFJY6h
+🚩 **Portronics Wireless Car Devices**
+⚡ Up to 50% off
+👉🏻 amzaff.in/QmT36fm
+🚩 **Amazon basics Car &amp; Bike Accessories**
+⚡ Up to 50% off
+👉🏻 amzaff.in/1VPipdO
+🚩 **Involve DC Licensed Car Perfume**
+⚡ Up to 15% off
+👉🏻 amzaff.in/1TLRfCX
+🚩 **Royal Enfield Riding Jackets &amp; Helmets**
+⚡ Up to 30% off
+👉🏻 amzaff.in/8hW4PNv
+🚩 **Dylect Dashcams**
+⚡ Up to 50% off
+👉🏻 amzaff.in/shQQrKI
+🚩 **Autofact Car Covers, Sunshades &amp; more**
+⚡ Up to 75% off
+👉🏻 amzaff.in/5l22ct8</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>17</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 Ends tomorrow**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+💻 **High Performance Laptops**
+⚡ Up to 45% off
+👉🏻 amzaff.in/4ZasxOQ
+🔥 **Biggest Deals | Ends tomorrow 🔥**
+💻 **Microsoft Surface Pro 11**
+⚡ ₹ ~~1,65,999~~ | ₹ 1,56,990
+⚡ Effective price: ₹ 1,46,990
+👉🏻 amzaff.in/ApGAGaS
+💻 **Lenovo Ideapad Ryzen AI 7**
+⚡ ₹ ~~1,25,890~~ | ₹ 81,990
+⚡ Effective price: ₹ 76,990
+👉🏻 amzaff.in/OVd2bnB
+💻 **Asus Zenbook Ultra 7**
+⚡ ₹ ~~1,58,990~~ | ₹ 1,17,990
+⚡ Effective price: ₹ 1,09,740
+👉🏻 amzaff.in/a2Htw0I
+💻 **HP Omnibook 5 Snapdragon**
+⚡ ₹ ~~88,226~~ | ₹ 69,990
+⚡ Effective price: ₹ 62,740
+👉🏻 amzaff.in/yGY366J
+💻 **Dell Inspiron 13 AI**
+⚡ ₹ ~~1,27,601~~ | ₹ 99,590
+⚡ Effective price: ₹ 94,590
+👉🏻 amzaff.in/gz9F3aN
+💻 **HP 15 Ryzen 7**
+⚡ ₹ ~~56,902~~ | ₹ 46,990
+⚡ Effective price: ₹ 46,990
+👉🏻 amzaff.in/5onPFEv</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>18</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 Ends tomorrow**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🖥️ **Computer Accessories**
+⚡ Up to 75% off
+👉🏻 amzaff.in/cKn4oQB
+🎒 **Red Lemon Swisslook**
+⚡ ₹ ~~5,999~~ | ₹ 2,749
+⚡ Effective price: ₹ 2,749
+👉🏻 amzaff.in/EHx0lNd
+🎒 **RIONTO Messenger Bag**
+⚡ ₹ ~~2,196~~ | ₹ 1,329
+⚡ Effective price: ₹ 1,329
+👉🏻 amzaff.in/SCYTTEO
+🎒 **HP Prelude Pro Laptop Bag**
+⚡ ₹ ~~8,999~~ | ₹ 3,599
+⚡ Effective price: ₹ 3,599
+👉🏻 amzaff.in/4tt3fU1
+📷 **Lenovo 300 FHD Webcam**
+⚡ ₹ ~~4,990~~ | ₹ 2,699
+⚡ Effective price: ₹ 2,699
+👉🏻 amzaff.in/PF3BRTh
+📷 **Kreo Owl Full HD 1080P60 FPS Webcam**
+⚡ ₹ ~~5,000~~ | ₹ 3,499
+⚡ Effective price: ₹ 3,499
+👉🏻 amzaff.in/uAzhD48
+🎧 **Jabra Evolve 10 Over Ear Noise Cancellation Headset**
+⚡ ₹ ~~5,550~~ | ₹ 3,199
+⚡ Effective price: ₹ 3,199
+👉🏻 amzaff.in/emOLOwf</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>19</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 Ends tomorrow**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **Smartphones | Price Crash Alert 🔥**
+📱 **Itel Zeno 10**
+⚡ ₹ ~~7,399~~ | ₹ 5,399
+👉🏻 amzaff.in/ag03pfN
+📱 **Lava Bold N1 pro**
+⚡ ₹ ~~8,399~~ | ₹ 6,029
+👉🏻 amzaff.in/3fSd18R
+📱 **NARZO 80 Pro 5G**
+⚡ ₹ ~~23,999~~ | ₹ 17,149
+👉🏻 amzaff.in/5Kj7TTj
+📱 **Tecno Pop 9**
+⚡ ₹ ~~8,499~~ | ₹ 5,400
+👉🏻 amzaff.in/BL5Uuix
+📱 **OnePlus Nord CE4**
+⚡ ₹ ~~24,999~~ | ₹ 18,999
+👉🏻 amzaff.in/huD2SAk
+📱 **Galaxy A55 5G**
+⚡ ₹ ~~42,999~~ | ₹ 24,999
+👉🏻 amzaff.in/VSoJjrw
+# **Including Bank Offer**
+# Including Bank &amp; Coupon Offer</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>20</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>🎉 **Great Freedom Festival 📣 Ends tomorrow**
+💳 **10% Instant Discount with SBI Credit card &amp; EMI Transactions | T&amp;C Apply**
+🌟   Exchange offer | No Cost EMI | Great Deals
+🔥 **Top Picks On Electronics and Accessories 🔥**
+💻 **Asus Vivobook 15 Ryzen 7**
+⚡ ₹ ~~57,990~~ | ₹ 45,990
+⚡ Effective price: ₹ 39,990
+👉🏻 amzaff.in/kLab0fX
+🎧 **Boat Nirvana Ivy Pro Ivory**
+⚡ ₹ ~~17,990~~ | ₹ 4,999
+⚡ Effective price: ₹ 4,499
+👉🏻 amzaff.in/IhJltT7
+💻 **Lenovo Yoga Tab Plus**
+⚡ ₹ ~~89,000~~ | ₹ 47,999
+⚡ Effective price: ₹ 45,999
+👉🏻 amzaff.in/bq57LWU
+📷 **70mai A810 Dual Dash Cam**
+⚡ ₹ ~~29,999~~ | ₹ 18,919
+👉🏻 amzaff.in/DpEeCmB
+🔊 **Sony HT-B600 5.1**
+⚡ ₹ ~~39,990~~ | ₹ 39,990
+⚡ Effective price: ₹ 38,240
+👉🏻 amzaff.in/HtCFP8K
+⌚ **Amazfit Active 2 Square**
+⚡ ₹ ~~25,999~~ | ₹ 11,999
+⚡ Effective price: ₹ 11,500
+👉🏻 amzaff.in/DIvq0rp</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off
+👉🏻 amzaff.in/pXpqAHe
+🪴 Solar Garden &amp; Outdoors
+⚡️ Up to 70% off
+👉🏻 amzaff.in/092HVM2
+🛍 End Of Season Sale
+⚡️ Up to 70% off
+👉🏻 amzaff.in/ukuS1wj
+🏠 Home Shopping Spree
+📣 Sale live from 26th-30th July
+👉🏻 amzaff.in/dvgN1JH</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>22:15:00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+💥 Maximise earnings with Beauty commissions – Now increased to 10%
+🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
+⚡️ 80g @25% + 5% Off – ₹22
+👉🏻 amzaff.in/kyKGkVq
+🧼 Cetaphil Brightness Reveal Creamy Cleanser
+⚡️ 100g @25% Off – ₹599
+👉🏻 amzaff.in/2QkCAT6
+💆‍♀️ Herbal Essences bio:renew Argan Oil of Morocco Shampoo
+⚡️ 400ml @60% Off – ₹260
+👉🏻 amzaff.in/WPdHenG
+🧴 Be Bodywise 6% AHA BHA Underarm Roll On Deodorant
+⚡️ 50ml | Alcohol &amp; Aluminum Free – ₹399
+👉🏻 amzaff.in/3YBXpxC
+🕺 Park Avenue Voyage Signature Collection Perfume for Men
+⚡️ 120ml @57% Off – ₹171
+👉🏻 amzaff.in/IQsEdXX</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💻 **DEMO Level Gaming Laptops**
+⚡️ Up to 45% off
+👉🏻 amzaff.in/FeVABNi
+🔥 Gaming Laptops Under ₹80,000 🔥
+💻 ASUS TUF A15 GAMING
+⚡️ ~~₹83,990~~ | ₹63,990
+⚡️ Effective price ₹56,490
+👉🏻 amzaff.in/HNJJ4b3
+💻 HP VICTUS GAMING
+⚡️ ~~₹99,382~~ | ₹82,990
+⚡️ Effective price ₹77,490
+👉🏻 amzaff.in/rIYTx8U
+💻 LENOVO LOQ GAMING
+⚡️ ~~₹1,12,990~~ | ₹87,190
+⚡️ Effective price ₹77,190
+👉🏻 amzaff.in/Q2oXx7g
+💻 ACER NITRO V GAMING
+⚡️ ~~₹89,999~~ | ₹70,990
+⚡️ Effective price ₹67,490
+👉🏻 amzaff.in/Es6mtU0
+💻 DELL G15 GAMING
+⚡️ ~~₹1,06,331~~ | ₹77,490
+⚡️ Effective price ₹68,990
+👉🏻 amzaff.in/MMEYXBc
+💻 ASUS CREATOR SERIES
+⚡️ ~~₹85,990~~ | ₹72,990
+⚡️ Effective price ₹66,490
+👉🏻 amzaff.in/R4IV7C8</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off
+👉🏻 amzaff.in/pXpqAHe
+🪴 Solar Garden &amp; Outdoors
+⚡️ Up to 70% off
+👉🏻 amzaff.in/092HVM2
+🛍 End Of Season Sale
+⚡️ Up to 70% off
+👉🏻 amzaff.in/ukuS1wj
+🏠 Home Shopping Spree
+📣 Sale live from 26th-30th July
+👉🏻 amzaff.in/dvgN1JH</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+💥 Maximise earnings with Beauty commissions – Now increased to 10%
+🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
+⚡️ 80g @25% + 5% Off – ₹22
+👉🏻 amzaff.in/kyKGkVq
+🧼 Cetaphil Brightness Reveal Creamy Cleanser
+⚡️ 100g @25% Off – ₹599
+👉🏻 amzaff.in/2QkCAT6
+💆‍♀️ Herbal Essences bio:renew Argan Oil of Morocco Shampoo
+⚡️ 400ml @60% Off – ₹260
+👉🏻 amzaff.in/WPdHenG
+🧴 Be Bodywise 6% AHA BHA Underarm Roll On Deodorant
+⚡️ 50ml | Alcohol &amp; Aluminum Free – ₹399
+👉🏻 amzaff.in/3YBXpxC
+🕺 Park Avenue Voyage Signature Collection Perfume for Men
+⚡️ 120ml @57% Off – ₹171
+👉🏻 amzaff.in/IQsEdXX</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💻 **DEMO Level Gaming Laptops**
+⚡️ Up to 45% off
+👉🏻 amzaff.in/FeVABNi
+🔥 Gaming Laptops Under ₹80,000 🔥
+💻 ASUS TUF A15 GAMING
+⚡️ ~~₹83,990~~ | ₹63,990
+⚡️ Effective price ₹56,490
+👉🏻 amzaff.in/HNJJ4b3
+💻 HP VICTUS GAMING
+⚡️ ~~₹99,382~~ | ₹82,990
+⚡️ Effective price ₹77,490
+👉🏻 amzaff.in/rIYTx8U
+💻 LENOVO LOQ GAMING
+⚡️ ~~₹1,12,990~~ | ₹87,190
+⚡️ Effective price ₹77,190
+👉🏻 amzaff.in/Q2oXx7g
+💻 ACER NITRO V GAMING
+⚡️ ~~₹89,999~~ | ₹70,990
+⚡️ Effective price ₹67,490
+👉🏻 amzaff.in/Es6mtU0
+💻 DELL G15 GAMING
+⚡️ ~~₹1,06,331~~ | ₹77,490
+⚡️ Effective price ₹68,990
+👉🏻 amzaff.in/MMEYXBc
+💻 ASUS CREATOR SERIES
+⚡️ ~~₹85,990~~ | ₹72,990
+⚡️ Effective price ₹66,490
+👉🏻 amzaff.in/R4IV7C8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/post_logs.xlsx
+++ b/logs/post_logs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3836,6 +3836,1921 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off...</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+💥 Maximise earnings with Beauty commissions – Now increased to 10%
+🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
+⚡️ 80g...</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💻 **DEMO Level Gaming Laptops**
+⚡️ Up to 45% off
+👉🏻 amzaff.in/FeVABNi
+🔥 Gaming Laptops Under ₹80,000 🔥
+💻 ASUS TUF A15 GAMING
+⚡️ ~~₹83,990~~ | ₹63,990
+⚡️ Effective price ₹56,490
+👉🏻 amzaff...</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off...</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+💥 Maximise earnings with Beauty commissions – Now increased to 10%
+🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
+⚡️ 80g...</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💻 **DEMO Level Gaming Laptops**
+⚡️ Up to 45% off
+👉🏻 amzaff.in/FeVABNi
+🔥 Gaming Laptops Under ₹80,000 🔥
+💻 ASUS TUF A15 GAMING
+⚡️ ~~₹83,990~~ | ₹63,990
+⚡️ Effective price ₹56,490
+👉🏻 amzaff...</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off...</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+💥 Maximise earnings with Beauty commissions – Now increased to 10%
+🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
+⚡️ 80g...</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💻 **DEMO Level Gaming Laptops**
+⚡️ Up to 45% off
+👉🏻 amzaff.in/FeVABNi
+🔥 Gaming Laptops Under ₹80,000 🔥
+💻 ASUS TUF A15 GAMING
+⚡️ ~~₹83,990~~ | ₹63,990
+⚡️ Effective price ₹56,490
+👉🏻 amzaff...</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off...</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+💥 Maximise earnings with Beauty commissions – Now increased to 10%
+🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
+⚡️ 80g...</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💻 **DEMO Level Gaming Laptops**
+⚡️ Up to 45% off
+👉🏻 amzaff.in/FeVABNi
+🔥 Gaming Laptops Under ₹80,000 🔥
+💻 ASUS TUF A15 GAMING
+⚡️ ~~₹83,990~~ | ₹63,990
+⚡️ Effective price ₹56,490
+👉🏻 amzaff...</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off...</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+💥 Maximise earnings with Beauty commissions – Now increased to 10%
+🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
+⚡️ 80g...</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>3</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💻 **DEMO Level Gaming Laptops**
+⚡️ Up to 45% off
+👉🏻 amzaff.in/FeVABNi
+🔥 Gaming Laptops Under ₹80,000 🔥
+💻 ASUS TUF A15 GAMING
+⚡️ ~~₹83,990~~ | ₹63,990
+⚡️ Effective price ₹56,490
+👉🏻 amzaff...</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off...</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+💥 Maximise earnings with Beauty commissions – Now increased to 10%
+🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
+⚡️ 80g...</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>3</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💻 **DEMO Level Gaming Laptops**
+⚡️ Up to 45% off
+👉🏻 amzaff.in/FeVABNi
+🔥 Gaming Laptops Under ₹80,000 🔥
+💻 ASUS TUF A15 GAMING
+⚡️ ~~₹83,990~~ | ₹63,990
+⚡️ Effective price ₹56,490
+👉🏻 amzaff...</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off...</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+💥 Maximise earnings with Beauty commissions – Now increased to 10%
+🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
+⚡️ 80g...</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💻 **DEMO Level Gaming Laptops**
+⚡️ Up to 45% off
+👉🏻 amzaff.in/FeVABNi
+🔥 Gaming Laptops Under ₹80,000 🔥
+💻 ASUS TUF A15 GAMING
+⚡️ ~~₹83,990~~ | ₹63,990
+⚡️ Effective price ₹56,490
+👉🏻 amzaff...</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off...</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+💥 Maximise earnings with Beauty commissions – Now increased to 10%
+🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
+⚡️ 80g...</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>3</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💻 **DEMO Level Gaming Laptops**
+⚡️ Up to 45% off
+👉🏻 amzaff.in/FeVABNi
+🔥 Gaming Laptops Under ₹80,000 🔥
+💻 ASUS TUF A15 GAMING
+⚡️ ~~₹83,990~~ | ₹63,990
+⚡️ Effective price ₹56,490
+👉🏻 amzaff...</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off...</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+💥 Maximise earnings with Beauty commissions – Now increased to 10%
+🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
+⚡️ 80g...</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>3</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2025-08-31</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💻 **DEMO Level Gaming Laptops**
+⚡️ Up to 45% off
+👉🏻 amzaff.in/FeVABNi
+🔥 Gaming Laptops Under ₹80,000 🔥
+💻 ASUS TUF A15 GAMING
+⚡️ ~~₹83,990~~ | ₹63,990
+⚡️ Effective price ₹56,490
+👉🏻 amzaff...</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>✅ Scheduled (Image)</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off...</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off...</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>21:05:00</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>✅ Scheduled (Image+Caption)</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+💥 Maximise earnings with Beauty commissions – Now increased to 10%
+🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
+⚡️ 80g...</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>21:05:00</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+💥 Maximise earnings with Beauty commissions – Now increased to 10%
+🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
+⚡️ 80g...</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>3</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>21:10:00</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>✅ Scheduled (Image+Caption)</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💻 **DEMO Level Gaming Laptops**
+⚡️ Up to 45% off
+👉🏻 amzaff.in/FeVABNi
+🔥 Gaming Laptops Under ₹80,000 🔥
+💻 ASUS TUF A15 GAMING
+⚡️ ~~₹83,990~~ | ₹63,990
+⚡️ Effective price ₹56,490
+👉🏻 amzaff...</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>21:10:00</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💻 **DEMO Level Gaming Laptops**
+⚡️ Up to 45% off
+👉🏻 amzaff.in/FeVABNi
+🔥 Gaming Laptops Under ₹80,000 🔥
+💻 ASUS TUF A15 GAMING
+⚡️ ~~₹83,990~~ | ₹63,990
+⚡️ Effective price ₹56,490
+👉🏻 amzaff...</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>✅ Scheduled (Image)</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off...</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off...</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>21:05:00</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+💥 Maximise earnings with Beauty commissions – Now increased to 10%
+🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
+⚡️ 80g...</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>3</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>21:10:00</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💻 **DEMO Level Gaming Laptops**
+⚡️ Up to 45% off
+👉🏻 amzaff.in/FeVABNi
+🔥 Gaming Laptops Under ₹80,000 🔥
+💻 ASUS TUF A15 GAMING
+⚡️ ~~₹83,990~~ | ₹63,990
+⚡️ Effective price ₹56,490
+👉🏻 amzaff...</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>✅ Scheduled (Image only)</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off...</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>21:05:00</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+💥 Maximise earnings with Beauty commissions – Now increased to 10%
+🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
+⚡️ 80g...</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>3</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>21:10:00</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💻 **DEMO Level Gaming Laptops**
+⚡️ Up to 45% off
+👉🏻 amzaff.in/FeVABNi
+🔥 Gaming Laptops Under ₹80,000 🔥
+💻 ASUS TUF A15 GAMING
+⚡️ ~~₹83,990~~ | ₹63,990
+⚡️ Effective price ₹56,490
+👉🏻 amzaff...</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>✅ Scheduled (Image only)</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Kid's Carnival</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+🔥 **DEMO DEALS OF THE DAY** 🔥
+💥 Price Crash Store
+⚡️ Up to 5% off
+👉🏻 amzaff.in/l3swo0g
+🌟 Kid's Carnival
+📣 Sale live till 28th July
+👉🏻 amzaff.in/jrtPYsT
+🧸 Toy's Fiesta
+⚡️ Up to 70% off...</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Daily Essentials</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>10:05:00</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💧 **DEMO Essentials for Skin, Hair &amp; Fragrance** 💧
+💥 Maximise earnings with Beauty commissions – Now increased to 10%
+🌿 Mamaearth Rice Oil-Free Face Moisturizer for Oily Skin
+⚡️ 80g...</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>3</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Laptops</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2025-09-03</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>10:10:00</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>DEMO_POST
+💻 **DEMO Level Gaming Laptops**
+⚡️ Up to 45% off
+👉🏻 amzaff.in/FeVABNi
+🔥 Gaming Laptops Under ₹80,000 🔥
+💻 ASUS TUF A15 GAMING
+⚡️ ~~₹83,990~~ | ₹63,990
+⚡️ Effective price ₹56,490
+👉🏻 amzaff...</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/post_logs.xlsx
+++ b/logs/post_logs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,11 @@
           <t>Message</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Channel</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -572,6 +577,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -634,6 +640,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -691,6 +698,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -758,6 +766,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -815,6 +824,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -875,6 +885,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -958,6 +969,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1024,6 +1036,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1083,6 +1096,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1166,6 +1180,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1223,6 +1238,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1288,6 +1304,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1342,6 +1359,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1401,6 +1419,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1460,6 +1479,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1526,6 +1546,7 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1591,6 +1612,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1650,6 +1672,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1712,6 +1735,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -1767,6 +1791,7 @@
 👉🏻 amzaff.in/dvgN1JH</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -1820,6 +1845,7 @@
 👉🏻 amzaff.in/IQsEdXX</t>
         </is>
       </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -1884,6 +1910,7 @@
 👉🏻 amzaff.in/R4IV7C8</t>
         </is>
       </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -1944,6 +1971,7 @@
 #3 Including bank coupon offer</t>
         </is>
       </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -2001,6 +2029,7 @@
 👉🏻 amzaff.in/Z2bNfA5</t>
         </is>
       </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -2064,6 +2093,7 @@
 👉🏻 amzaff.in/srnrpxV</t>
         </is>
       </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -2121,6 +2151,7 @@
 👉🏻 amzaff.in/4BT4gvh</t>
         </is>
       </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -2183,6 +2214,7 @@
 👉🏻 amzaff.in/FfxM93V</t>
         </is>
       </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -2240,6 +2272,7 @@
 👉🏻 amzaff.in/s4QD0BJ</t>
         </is>
       </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -2305,6 +2338,7 @@
 👉🏻 amzaff.in/XhZb3MA</t>
         </is>
       </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -2362,6 +2396,7 @@
 👉🏻 amzaff.in/9Y8v39c</t>
         </is>
       </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -2426,6 +2461,7 @@
 👉🏻 amzaff.in/JMe8Xdr</t>
         </is>
       </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -2491,6 +2527,7 @@
 👉🏻 amzaff.in/1bEQTPW</t>
         </is>
       </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -2551,6 +2588,7 @@
 👉🏻 amzaff.in/jZzk4Ks</t>
         </is>
       </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -2613,6 +2651,7 @@
 👉🏻 amzaff.in/B30aWTr</t>
         </is>
       </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -2672,6 +2711,7 @@
 👉🏻 amzaff.in/1QS8Ixk</t>
         </is>
       </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -2734,6 +2774,7 @@
 👉🏻 amzaff.in/OUxqJDH</t>
         </is>
       </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -2792,6 +2833,7 @@
 👉🏻 amzaff.in/V2sI4x5</t>
         </is>
       </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -2849,6 +2891,7 @@
 👉🏻 amzaff.in/Nj7ktWN</t>
         </is>
       </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -2908,6 +2951,7 @@
 👉🏻 amzaff.in/36KEtuX</t>
         </is>
       </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -2968,6 +3012,7 @@
 👉🏻 amzaff.in/mx4k7sB</t>
         </is>
       </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -3027,6 +3072,7 @@
 👉🏻 amzaff.in/kEbYPKD</t>
         </is>
       </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -3087,6 +3133,7 @@
 👉🏻 amzaff.in/PtQuEV0</t>
         </is>
       </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -3147,6 +3194,7 @@
 👉🏻 amzaff.in/dqc4h6R</t>
         </is>
       </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -3202,6 +3250,7 @@
 👉🏻 amzaff.in/dvgN1JH</t>
         </is>
       </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -3255,6 +3304,7 @@
 👉🏻 amzaff.in/IQsEdXX</t>
         </is>
       </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -3319,6 +3369,7 @@
 👉🏻 amzaff.in/R4IV7C8</t>
         </is>
       </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -3374,6 +3425,7 @@
 👉🏻 amzaff.in/dvgN1JH</t>
         </is>
       </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -3427,6 +3479,7 @@
 👉🏻 amzaff.in/IQsEdXX</t>
         </is>
       </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -3491,6 +3544,7 @@
 👉🏻 amzaff.in/R4IV7C8</t>
         </is>
       </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -3546,6 +3600,7 @@
 👉🏻 amzaff.in/dvgN1JH</t>
         </is>
       </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
@@ -3599,6 +3654,7 @@
 👉🏻 amzaff.in/IQsEdXX</t>
         </is>
       </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -3663,6 +3719,7 @@
 👉🏻 amzaff.in/R4IV7C8</t>
         </is>
       </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -3718,6 +3775,7 @@
 👉🏻 amzaff.in/dvgN1JH</t>
         </is>
       </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -3771,6 +3829,7 @@
 👉🏻 amzaff.in/IQsEdXX</t>
         </is>
       </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -3835,6 +3894,7 @@
 👉🏻 amzaff.in/R4IV7C8</t>
         </is>
       </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -3880,6 +3940,7 @@
 ⚡️ Up to 70% off...</t>
         </is>
       </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -3920,6 +3981,7 @@
 ⚡️ 80g...</t>
         </is>
       </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -3964,6 +4026,7 @@
 👉🏻 amzaff...</t>
         </is>
       </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -4009,6 +4072,7 @@
 ⚡️ Up to 70% off...</t>
         </is>
       </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -4049,6 +4113,7 @@
 ⚡️ 80g...</t>
         </is>
       </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -4093,6 +4158,7 @@
 👉🏻 amzaff...</t>
         </is>
       </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -4138,6 +4204,7 @@
 ⚡️ Up to 70% off...</t>
         </is>
       </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -4178,6 +4245,7 @@
 ⚡️ 80g...</t>
         </is>
       </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -4222,6 +4290,7 @@
 👉🏻 amzaff...</t>
         </is>
       </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -4267,6 +4336,7 @@
 ⚡️ Up to 70% off...</t>
         </is>
       </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -4307,6 +4377,7 @@
 ⚡️ 80g...</t>
         </is>
       </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -4351,6 +4422,7 @@
 👉🏻 amzaff...</t>
         </is>
       </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -4396,6 +4468,7 @@
 ⚡️ Up to 70% off...</t>
         </is>
       </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -4436,6 +4509,7 @@
 ⚡️ 80g...</t>
         </is>
       </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -4480,6 +4554,7 @@
 👉🏻 amzaff...</t>
         </is>
       </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -4525,6 +4600,7 @@
 ⚡️ Up to 70% off...</t>
         </is>
       </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -4565,6 +4641,7 @@
 ⚡️ 80g...</t>
         </is>
       </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
@@ -4609,6 +4686,7 @@
 👉🏻 amzaff...</t>
         </is>
       </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -4654,6 +4732,7 @@
 ⚡️ Up to 70% off...</t>
         </is>
       </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -4694,6 +4773,7 @@
 ⚡️ 80g...</t>
         </is>
       </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
@@ -4738,6 +4818,7 @@
 👉🏻 amzaff...</t>
         </is>
       </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
@@ -4783,6 +4864,7 @@
 ⚡️ Up to 70% off...</t>
         </is>
       </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
@@ -4823,6 +4905,7 @@
 ⚡️ 80g...</t>
         </is>
       </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -4867,6 +4950,7 @@
 👉🏻 amzaff...</t>
         </is>
       </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -4912,6 +4996,7 @@
 ⚡️ Up to 70% off...</t>
         </is>
       </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -4952,6 +5037,7 @@
 ⚡️ 80g...</t>
         </is>
       </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
@@ -4996,6 +5082,7 @@
 👉🏻 amzaff...</t>
         </is>
       </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
@@ -5041,6 +5128,7 @@
 ⚡️ Up to 70% off...</t>
         </is>
       </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
@@ -5086,6 +5174,7 @@
 ⚡️ Up to 70% off...</t>
         </is>
       </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
@@ -5126,6 +5215,7 @@
 ⚡️ 80g...</t>
         </is>
       </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -5166,6 +5256,7 @@
 ⚡️ 80g...</t>
         </is>
       </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
@@ -5210,6 +5301,7 @@
 👉🏻 amzaff...</t>
         </is>
       </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
@@ -5254,6 +5346,7 @@
 👉🏻 amzaff...</t>
         </is>
       </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
@@ -5299,6 +5392,7 @@
 ⚡️ Up to 70% off...</t>
         </is>
       </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
@@ -5344,6 +5438,7 @@
 ⚡️ Up to 70% off...</t>
         </is>
       </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
@@ -5384,6 +5479,7 @@
 ⚡️ 80g...</t>
         </is>
       </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
@@ -5428,6 +5524,7 @@
 👉🏻 amzaff...</t>
         </is>
       </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
@@ -5460,6 +5557,7 @@
         </is>
       </c>
       <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
@@ -5505,6 +5603,7 @@
 ⚡️ Up to 70% off...</t>
         </is>
       </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
@@ -5545,6 +5644,7 @@
 ⚡️ 80g...</t>
         </is>
       </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
@@ -5589,6 +5689,7 @@
 👉🏻 amzaff...</t>
         </is>
       </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
@@ -5621,6 +5722,7 @@
         </is>
       </c>
       <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -5666,6 +5768,7 @@
 ⚡️ Up to 70% off...</t>
         </is>
       </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
@@ -5706,6 +5809,7 @@
 ⚡️ 80g...</t>
         </is>
       </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
@@ -5750,6 +5854,220 @@
 👉🏻 amzaff...</t>
         </is>
       </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>15</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>18:05:00</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>✅ Scheduled (Image only)</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>amazonindiaassociates</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>15</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>18:05:00</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>⚠️ No Content</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>No text or image provided</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>amazonindiaassociates</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>15</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>18:05:00</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>🎧 **Wireless &amp; Headphones**
+⚡ Up to 75% off
+🎉 **Great Indian Festival 📣  Live Now**
+🌟  **Great Deals | No Cost EMI | Exchange Offer**
+- 10% Instant Discount upto ₹1.4Lakh. Offer resets on every...</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>amazonindiaassociates</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="n">
+        <v>15</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>18:05:00</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>❌ Failed: cannot access local variable 'error_msg' where it is not associated with a value</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>🎧 **Wireless &amp; Headphones**
+⚡ Up to 75% off
+🎉 **Great Indian Festival 📣  Live Now**
+🌟  **Great Deals | No Cost EMI | Exchange Offer**
+- 10% Instant Discount upto ₹1.4Lakh. Offer resets on every...</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>amazonindiaassociates</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>16</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>18:35:00</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>✅ Scheduled</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>🔥 **Samsung Washing Machines**
+⚡ Up to 40% off
+🎉 **Great Indian Festival 📣  Live Now**
+🌟  **Great Deals | No Cost EMI | Exchange Offer**
+- 10% Instant Discount upto ₹1.4Lakh. Offer resets on...</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>amazonindiaassociates</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
